--- a/pfapp/Excel/hoja.xlsx
+++ b/pfapp/Excel/hoja.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">ciudad</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexa</t>
+    <t xml:space="preserve">Alexa myers</t>
   </si>
   <si>
     <t xml:space="preserve">sfd@gmail.com</t>
@@ -51,6 +51,33 @@
   </si>
   <si>
     <t xml:space="preserve">ewtre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosa@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lopez@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puerto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julio@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curramba</t>
   </si>
   <si>
     <t xml:space="preserve">dgds</t>
@@ -161,17 +188,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,10 +243,55 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1234557</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>231454</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="sfd@gmail.com"/>
     <hyperlink ref="B3" r:id="rId2" display="fdhgf@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="rosa@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="lopez@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="julio@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -244,12 +316,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
